--- a/_Parley'shouse/Statement making/Statement.xlsx
+++ b/_Parley'shouse/Statement making/Statement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parleyyang/Desktop/LIMA/_Parley'shouse/Statement making/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAD7A6-6F0D-694E-A638-A77A5DB99613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97592922-DD72-4543-A0D1-C2F346D1DFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{65B4C1D7-BFE4-D043-A7BB-4FE0085D182F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{65B4C1D7-BFE4-D043-A7BB-4FE0085D182F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Parley</t>
   </si>
@@ -66,10 +66,16 @@
     <t>Capital at current</t>
   </si>
   <si>
-    <t>Total P/L</t>
-  </si>
-  <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>Team P/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Volume </t>
+  </si>
+  <si>
+    <t>Total Volume Traded</t>
   </si>
 </sst>
 </file>
@@ -114,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309926FC-8353-A24D-94D8-68F113A8B9BD}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -513,12 +520,30 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="16" spans="1:5">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
